--- a/biology/Botanique/Margaritaria/Margaritaria.xlsx
+++ b/biology/Botanique/Margaritaria/Margaritaria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Margaritaria est un genre de plantes à fleurs de la famille des Phyllanthaceae (anciennement des Euphorbiaceae). C'est le plus petit genre pantropical de la famille. Il est largement distribué dans les régions tropicales et subtropicales d'Asie, d'Afrique, d'Australie, d'Amérique du Nord et du Sud et de diverses îles océaniques[5],[6].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Margaritaria est un genre de plantes à fleurs de la famille des Phyllanthaceae (anciennement des Euphorbiaceae). C'est le plus petit genre pantropical de la famille. Il est largement distribué dans les régions tropicales et subtropicales d'Asie, d'Afrique, d'Australie, d'Amérique du Nord et du Sud et de diverses îles océaniques,.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Liste des espèces, sous-espèces, variétés et formes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon GRIN            (17 mai 2022)[7] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GRIN            (17 mai 2022) :
 Calococcus sundaicus Kurz
 Margaritaria anomala (Baill.) Fosberg
 Margaritaria cyanosperma (Gaertn.) Airy Shaw
@@ -536,7 +550,7 @@
 Margaritaria scandens (C.Wright ex Griseb.) G.L.Webster
 Margaritaria tetracocca (Baill.) G.L.Webster
 Prosorus indicus Thwaites, 1854
-Selon Tropicos                                           (17 mai 2022)[3] :
+Selon Tropicos                                           (17 mai 2022) :
 Margaritaria adelioides Rich. ex Baill., 1858
 Margaritaria alternifolia L., 1775
 Margaritaria anomala (Baill.) Fosberg, 1978
@@ -550,7 +564,7 @@
 Margaritaria hotteana (Urb. &amp; Ekman) G.L. Webster, 1957
 Margaritaria indica (Dalzell) Airy, 1966
 Margaritaria luzoniensis (Merr.) Airy Shaw, 1966
-Margaritaria nobilis L. f., 1781 [1782]
+Margaritaria nobilis L. f., 1781 
 Margaritaria obovata (Baill.) G.L. Webster, 1979
 Margaritaria oppositifolia L., 1775
 Margaritaria rhomboidalis (Baill.) G.L. Webster, 1979
